--- a/Anotações/Análise investimento bitcoin.xlsx
+++ b/Anotações/Análise investimento bitcoin.xlsx
@@ -44,7 +44,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -113,8 +113,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
